--- a/Entity Info EM - DEMO.xlsx
+++ b/Entity Info EM - DEMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0BA61-EB56-4D1E-8D5F-BBE4E6C05604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49115EF3-D10D-4B7B-B6F3-DFA09625FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,217 +1632,217 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="27"/>
-    <col min="3" max="3" width="49.77734375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="62.77734375" style="27" customWidth="1"/>
-    <col min="5" max="18" width="8.77734375" style="27"/>
-    <col min="19" max="19" width="45.21875" style="27" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="27"/>
+    <col min="1" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="3" width="49.77734375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="62.77734375" style="26" customWidth="1"/>
+    <col min="5" max="18" width="8.77734375" style="26"/>
+    <col min="19" max="19" width="45.21875" style="26" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,34 +1882,34 @@
       <c r="B1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -1927,13 +1927,13 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1984,13 +1984,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="H6" s="10" t="s">
         <v>26</v>
@@ -2057,16 +2057,16 @@
       <c r="I8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2086,16 +2086,16 @@
       <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2106,21 +2106,21 @@
       <c r="I10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2158,23 +2158,23 @@
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="H12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2194,16 +2194,16 @@
       <c r="I13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2214,43 +2214,43 @@
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="H15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2270,16 +2270,16 @@
       <c r="I16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2299,16 +2299,16 @@
       <c r="I17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2319,43 +2319,43 @@
       <c r="I18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="H19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2375,16 +2375,16 @@
       <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2404,27 +2404,27 @@
       <c r="I21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2449,13 +2449,13 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -2485,13 +2485,13 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2516,13 +2516,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2549,14 +2549,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="22" t="s">
+      <c r="E39" s="16"/>
+      <c r="F39" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2583,13 +2583,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" t="s">
         <v>62</v>
       </c>
@@ -2617,13 +2617,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -2653,13 +2653,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="16"/>
       <c r="F51" t="s">
         <v>80</v>
       </c>
@@ -2687,14 +2687,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="22" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2721,14 +2721,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="22" t="s">
+      <c r="E59" s="16"/>
+      <c r="F59" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2755,14 +2755,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="22" t="s">
+      <c r="E63" s="16"/>
+      <c r="F63" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2789,13 +2789,13 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -2825,13 +2825,13 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2876,8 +2876,8 @@
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="19" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
@@ -2893,383 +2893,383 @@
     <col min="17" max="18" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R29" xr:uid="{00000000-0009-0000-0000-000002000000}">

--- a/Entity Info EM - DEMO.xlsx
+++ b/Entity Info EM - DEMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49115EF3-D10D-4B7B-B6F3-DFA09625FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FA42C5-DDA6-4029-AE48-A67C377F056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>Equinor - GSR</t>
   </si>
   <si>
-    <t>67fd9c30fbbe458bbae9a00133e42dc5</t>
+    <t>w_67fd9c30fbbe458bbae9a00133e42dc5</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Entity Info EM - DEMO.xlsx
+++ b/Entity Info EM - DEMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FA42C5-DDA6-4029-AE48-A67C377F056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24451808-603A-454C-AC80-7B6D485D0007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
